--- a/paper/raw_data/revised/old_results/exp19_INTERVAL.xlsx
+++ b/paper/raw_data/revised/old_results/exp19_INTERVAL.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aprodrom\Desktop\MemPod\paper\raw_data\revised\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prodr\Desktop\MemPod\paper\raw_data\revised\old_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -137,7 +137,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -180,12 +180,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -204,7 +204,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -279,6 +279,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A3A2-4EBE-A85B-912FE7940D3D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -322,6 +327,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A3A2-4EBE-A85B-912FE7940D3D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -365,6 +375,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A3A2-4EBE-A85B-912FE7940D3D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -479,6 +494,11 @@
             </c:numRef>
           </c:cat>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A3A2-4EBE-A85B-912FE7940D3D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -571,6 +591,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-A3A2-4EBE-A85B-912FE7940D3D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -644,6 +669,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-A3A2-4EBE-A85B-912FE7940D3D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -717,6 +747,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-A3A2-4EBE-A85B-912FE7940D3D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -778,6 +813,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-A3A2-4EBE-A85B-912FE7940D3D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -944,12 +984,11 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="900" b="1"/>
-                  <a:t>AMMAT / AMMAT(16)</a:t>
+                  <a:t>AMMAT / AMMAT(50)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1823,16 +1862,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>435429</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>136072</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>231321</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>54430</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>139825</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>53443</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>425575</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>162301</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1865,211 +1904,70 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="42">
-          <cell r="B42">
-            <v>16</v>
-          </cell>
-          <cell r="K42">
-            <v>1</v>
-          </cell>
-          <cell r="S42">
-            <v>5.5293333333333345</v>
-          </cell>
+          <cell r="A42"/>
         </row>
         <row r="43">
-          <cell r="B43">
-            <v>32</v>
-          </cell>
-          <cell r="K43">
-            <v>0.97144305784988805</v>
-          </cell>
-          <cell r="S43">
-            <v>9.8260000000000005</v>
-          </cell>
+          <cell r="A43"/>
         </row>
         <row r="44">
-          <cell r="B44">
-            <v>64</v>
-          </cell>
-          <cell r="K44">
-            <v>0.94605910927201053</v>
-          </cell>
-          <cell r="S44">
-            <v>16.27333333333333</v>
-          </cell>
+          <cell r="A44"/>
         </row>
         <row r="45">
           <cell r="A45" t="str">
             <v>AVG HG</v>
           </cell>
-          <cell r="B45">
-            <v>128</v>
-          </cell>
-          <cell r="K45">
-            <v>0.93789764642384021</v>
-          </cell>
-          <cell r="S45">
-            <v>24.355999999999995</v>
-          </cell>
         </row>
         <row r="46">
-          <cell r="B46">
-            <v>256</v>
-          </cell>
-          <cell r="K46">
-            <v>0.93582048052861433</v>
-          </cell>
-          <cell r="S46">
-            <v>31.40333333333334</v>
-          </cell>
+          <cell r="A46"/>
         </row>
         <row r="47">
-          <cell r="B47">
-            <v>512</v>
-          </cell>
-          <cell r="K47">
-            <v>0.95070411017157086</v>
-          </cell>
-          <cell r="S47">
-            <v>39.788000000000004</v>
-          </cell>
+          <cell r="A47"/>
+        </row>
+        <row r="48">
+          <cell r="A48"/>
         </row>
         <row r="49">
-          <cell r="B49">
-            <v>16</v>
-          </cell>
-          <cell r="L49">
-            <v>1</v>
-          </cell>
-          <cell r="T49">
-            <v>7.3083333333333336</v>
-          </cell>
+          <cell r="A49"/>
         </row>
         <row r="50">
-          <cell r="B50">
-            <v>32</v>
-          </cell>
-          <cell r="L50">
-            <v>0.96679464326523112</v>
-          </cell>
-          <cell r="T50">
-            <v>13.094999999999999</v>
-          </cell>
+          <cell r="A50"/>
         </row>
         <row r="51">
-          <cell r="B51">
-            <v>64</v>
-          </cell>
-          <cell r="L51">
-            <v>0.94334750217103147</v>
-          </cell>
-          <cell r="T51">
-            <v>22.46083333333333</v>
-          </cell>
+          <cell r="A51"/>
         </row>
         <row r="52">
           <cell r="A52" t="str">
             <v>AVG MIX</v>
           </cell>
-          <cell r="B52">
-            <v>128</v>
-          </cell>
-          <cell r="L52">
-            <v>0.93841126194067359</v>
-          </cell>
-          <cell r="T52">
-            <v>36.655833333333341</v>
-          </cell>
         </row>
         <row r="53">
-          <cell r="B53">
-            <v>256</v>
-          </cell>
-          <cell r="L53">
-            <v>0.94357603181132599</v>
-          </cell>
-          <cell r="T53">
-            <v>52.180833333333339</v>
-          </cell>
+          <cell r="A53"/>
         </row>
         <row r="54">
-          <cell r="B54">
-            <v>512</v>
-          </cell>
-          <cell r="L54">
-            <v>0.9646921705745235</v>
-          </cell>
-          <cell r="T54">
-            <v>72.006666666666661</v>
-          </cell>
+          <cell r="A54"/>
+        </row>
+        <row r="55">
+          <cell r="A55"/>
         </row>
         <row r="56">
-          <cell r="B56">
-            <v>16</v>
-          </cell>
-          <cell r="M56">
-            <v>1</v>
-          </cell>
-          <cell r="U56">
-            <v>6.3200000000000012</v>
-          </cell>
+          <cell r="A56"/>
         </row>
         <row r="57">
-          <cell r="B57">
-            <v>32</v>
-          </cell>
-          <cell r="M57">
-            <v>0.96950399908483431</v>
-          </cell>
-          <cell r="U57">
-            <v>11.27888888888889</v>
-          </cell>
+          <cell r="A57"/>
         </row>
         <row r="58">
-          <cell r="B58">
-            <v>64</v>
-          </cell>
-          <cell r="M58">
-            <v>0.94492797834107123</v>
-          </cell>
-          <cell r="U58">
-            <v>19.02333333333333</v>
-          </cell>
+          <cell r="A58"/>
         </row>
         <row r="59">
           <cell r="A59" t="str">
             <v>AVG ALL</v>
           </cell>
-          <cell r="B59">
-            <v>128</v>
-          </cell>
-          <cell r="M59">
-            <v>0.93811189811151718</v>
-          </cell>
-          <cell r="U59">
-            <v>29.822592592592596</v>
-          </cell>
         </row>
         <row r="60">
-          <cell r="B60">
-            <v>256</v>
-          </cell>
-          <cell r="M60">
-            <v>0.93905566306637855</v>
-          </cell>
-          <cell r="U60">
-            <v>40.637777777777771</v>
-          </cell>
+          <cell r="A60"/>
         </row>
         <row r="61">
-          <cell r="B61">
-            <v>512</v>
-          </cell>
-          <cell r="M61">
-            <v>0.95653914717966837</v>
-          </cell>
-          <cell r="U61">
-            <v>54.107407407407393</v>
-          </cell>
+          <cell r="A61"/>
         </row>
       </sheetData>
     </sheetDataSet>
@@ -2153,6 +2051,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2188,6 +2103,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2354,94 +2286,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="1" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="1" t="s">
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-    </row>
-    <row r="2" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="3">
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+    </row>
+    <row r="2" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="2">
         <v>50</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>100</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>200</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>300</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="2">
         <v>400</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="2">
         <v>500</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="2">
         <v>50</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2" s="2">
         <v>100</v>
       </c>
-      <c r="L2" s="3">
+      <c r="L2" s="2">
         <v>200</v>
       </c>
-      <c r="M2" s="3">
+      <c r="M2" s="2">
         <v>300</v>
       </c>
-      <c r="N2" s="3">
+      <c r="N2" s="2">
         <v>400</v>
       </c>
-      <c r="O2" s="3">
+      <c r="O2" s="2">
         <v>500</v>
       </c>
-      <c r="R2" s="3">
+      <c r="R2" s="2">
         <v>50</v>
       </c>
-      <c r="S2" s="3">
+      <c r="S2" s="2">
         <v>100</v>
       </c>
-      <c r="T2" s="3">
+      <c r="T2" s="2">
         <v>200</v>
       </c>
-      <c r="U2" s="3">
+      <c r="U2" s="2">
         <v>300</v>
       </c>
-      <c r="V2" s="3">
+      <c r="V2" s="2">
         <v>400</v>
       </c>
-      <c r="W2" s="3">
+      <c r="W2" s="2">
         <v>500</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B3">
@@ -2462,7 +2394,7 @@
       <c r="G3">
         <v>25.08</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="J3">
@@ -2489,7 +2421,7 @@
         <f t="shared" si="0"/>
         <v>0.88559322033898302</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="Q3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="R3">
@@ -2512,7 +2444,7 @@
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B4">
@@ -2533,7 +2465,7 @@
       <c r="G4">
         <v>47.03</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="J4">
@@ -2560,7 +2492,7 @@
         <f t="shared" si="0"/>
         <v>0.97350445042434275</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="Q4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="R4">
@@ -2583,7 +2515,7 @@
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B5">
@@ -2604,7 +2536,7 @@
       <c r="G5">
         <v>64.53</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="J5">
@@ -2631,7 +2563,7 @@
         <f t="shared" si="0"/>
         <v>1.0112834978843441</v>
       </c>
-      <c r="Q5" s="3" t="s">
+      <c r="Q5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="R5">
@@ -2654,7 +2586,7 @@
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B6">
@@ -2675,7 +2607,7 @@
       <c r="G6">
         <v>46.71</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J6">
@@ -2702,7 +2634,7 @@
         <f t="shared" si="0"/>
         <v>1.0508436445444318</v>
       </c>
-      <c r="Q6" s="3" t="s">
+      <c r="Q6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="R6">
@@ -2725,7 +2657,7 @@
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B7">
@@ -2746,7 +2678,7 @@
       <c r="G7">
         <v>70.400000000000006</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="J7">
@@ -2773,7 +2705,7 @@
         <f t="shared" si="0"/>
         <v>1.071863580998782</v>
       </c>
-      <c r="Q7" s="3" t="s">
+      <c r="Q7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="R7">
@@ -2796,7 +2728,7 @@
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B8">
@@ -2817,7 +2749,7 @@
       <c r="G8">
         <v>16.079999999999998</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="J8">
@@ -2844,7 +2776,7 @@
         <f t="shared" si="0"/>
         <v>1.0496083550913837</v>
       </c>
-      <c r="Q8" s="3" t="s">
+      <c r="Q8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="R8">
@@ -2867,7 +2799,7 @@
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B9">
@@ -2888,7 +2820,7 @@
       <c r="G9">
         <v>47.37</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="2" t="s">
         <v>6</v>
       </c>
       <c r="J9">
@@ -2915,7 +2847,7 @@
         <f t="shared" si="0"/>
         <v>0.87479224376731302</v>
       </c>
-      <c r="Q9" s="3" t="s">
+      <c r="Q9" s="2" t="s">
         <v>6</v>
       </c>
       <c r="R9">
@@ -2938,7 +2870,7 @@
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B10">
@@ -2959,7 +2891,7 @@
       <c r="G10">
         <v>22.46</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I10" s="2" t="s">
         <v>7</v>
       </c>
       <c r="J10">
@@ -2986,7 +2918,7 @@
         <f t="shared" si="0"/>
         <v>1.2347443650357339</v>
       </c>
-      <c r="Q10" s="3" t="s">
+      <c r="Q10" s="2" t="s">
         <v>7</v>
       </c>
       <c r="R10">
@@ -3009,7 +2941,7 @@
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B11">
@@ -3030,7 +2962,7 @@
       <c r="G11">
         <v>38.979999999999997</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="J11">
@@ -3057,7 +2989,7 @@
         <f t="shared" si="0"/>
         <v>1.0615468409586055</v>
       </c>
-      <c r="Q11" s="3" t="s">
+      <c r="Q11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="R11">
@@ -3080,7 +3012,7 @@
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B12">
@@ -3101,7 +3033,7 @@
       <c r="G12">
         <v>14.83</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="I12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="J12">
@@ -3128,7 +3060,7 @@
         <f t="shared" si="0"/>
         <v>1.0480565371024735</v>
       </c>
-      <c r="Q12" s="3" t="s">
+      <c r="Q12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="R12">
@@ -3151,7 +3083,7 @@
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B13">
@@ -3172,7 +3104,7 @@
       <c r="G13">
         <v>24.77</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="I13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J13">
@@ -3199,7 +3131,7 @@
         <f t="shared" si="0"/>
         <v>0.98882235528942108</v>
       </c>
-      <c r="Q13" s="3" t="s">
+      <c r="Q13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="R13">
@@ -3222,7 +3154,7 @@
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B14">
@@ -3243,7 +3175,7 @@
       <c r="G14">
         <v>14.78</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="2" t="s">
         <v>11</v>
       </c>
       <c r="J14">
@@ -3270,7 +3202,7 @@
         <f t="shared" si="0"/>
         <v>1.0437853107344632</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="Q14" s="2" t="s">
         <v>11</v>
       </c>
       <c r="R14">
@@ -3293,7 +3225,7 @@
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B15">
@@ -3314,7 +3246,7 @@
       <c r="G15">
         <v>30.78</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="I15" s="2" t="s">
         <v>12</v>
       </c>
       <c r="J15">
@@ -3341,7 +3273,7 @@
         <f t="shared" si="0"/>
         <v>1.017857142857143</v>
       </c>
-      <c r="Q15" s="3" t="s">
+      <c r="Q15" s="2" t="s">
         <v>12</v>
       </c>
       <c r="R15">
@@ -3364,7 +3296,7 @@
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B16">
@@ -3385,7 +3317,7 @@
       <c r="G16">
         <v>67.56</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="I16" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J16">
@@ -3412,7 +3344,7 @@
         <f t="shared" si="0"/>
         <v>1.0131973605278943</v>
       </c>
-      <c r="Q16" s="3" t="s">
+      <c r="Q16" s="2" t="s">
         <v>13</v>
       </c>
       <c r="R16">
@@ -3435,7 +3367,7 @@
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B17">
@@ -3456,7 +3388,7 @@
       <c r="G17">
         <v>53.76</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="I17" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J17">
@@ -3483,7 +3415,7 @@
         <f t="shared" si="0"/>
         <v>1.1365750528541227</v>
       </c>
-      <c r="Q17" s="3" t="s">
+      <c r="Q17" s="2" t="s">
         <v>14</v>
       </c>
       <c r="R17">
@@ -3506,7 +3438,7 @@
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B18">
@@ -3527,7 +3459,7 @@
       <c r="G18">
         <v>30.96</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="I18" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J18">
@@ -3554,7 +3486,7 @@
         <f t="shared" si="0"/>
         <v>0.95940502014254714</v>
       </c>
-      <c r="Q18" s="3" t="s">
+      <c r="Q18" s="2" t="s">
         <v>15</v>
       </c>
       <c r="R18">
@@ -3577,7 +3509,7 @@
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B19">
@@ -3598,7 +3530,7 @@
       <c r="G19">
         <v>19.78</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="I19" s="2" t="s">
         <v>16</v>
       </c>
       <c r="J19">
@@ -3625,7 +3557,7 @@
         <f t="shared" ref="O19:O29" si="6">G19/$B19</f>
         <v>0.97582634435125815</v>
       </c>
-      <c r="Q19" s="3" t="s">
+      <c r="Q19" s="2" t="s">
         <v>16</v>
       </c>
       <c r="R19">
@@ -3648,7 +3580,7 @@
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B20">
@@ -3669,7 +3601,7 @@
       <c r="G20">
         <v>36.17</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="I20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J20">
@@ -3696,7 +3628,7 @@
         <f t="shared" si="6"/>
         <v>0.96996513810673113</v>
       </c>
-      <c r="Q20" s="3" t="s">
+      <c r="Q20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="R20">
@@ -3719,7 +3651,7 @@
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B21">
@@ -3740,7 +3672,7 @@
       <c r="G21">
         <v>50.36</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="I21" s="2" t="s">
         <v>18</v>
       </c>
       <c r="J21">
@@ -3767,7 +3699,7 @@
         <f t="shared" si="6"/>
         <v>1.0179907014352132</v>
       </c>
-      <c r="Q21" s="3" t="s">
+      <c r="Q21" s="2" t="s">
         <v>18</v>
       </c>
       <c r="R21">
@@ -3790,7 +3722,7 @@
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B22">
@@ -3811,7 +3743,7 @@
       <c r="G22">
         <v>35.369999999999997</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="I22" s="2" t="s">
         <v>19</v>
       </c>
       <c r="J22">
@@ -3838,7 +3770,7 @@
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="Q22" s="3" t="s">
+      <c r="Q22" s="2" t="s">
         <v>19</v>
       </c>
       <c r="R22">
@@ -3861,7 +3793,7 @@
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B23">
@@ -3882,7 +3814,7 @@
       <c r="G23">
         <v>22.96</v>
       </c>
-      <c r="I23" s="3" t="s">
+      <c r="I23" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J23">
@@ -3909,7 +3841,7 @@
         <f t="shared" si="6"/>
         <v>0.97785349233390118</v>
       </c>
-      <c r="Q23" s="3" t="s">
+      <c r="Q23" s="2" t="s">
         <v>20</v>
       </c>
       <c r="R23">
@@ -3932,7 +3864,7 @@
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B24">
@@ -3953,7 +3885,7 @@
       <c r="G24">
         <v>32.619999999999997</v>
       </c>
-      <c r="I24" s="3" t="s">
+      <c r="I24" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J24">
@@ -3980,7 +3912,7 @@
         <f t="shared" si="6"/>
         <v>0.99785867237687365</v>
       </c>
-      <c r="Q24" s="3" t="s">
+      <c r="Q24" s="2" t="s">
         <v>21</v>
       </c>
       <c r="R24">
@@ -4003,7 +3935,7 @@
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B25">
@@ -4024,7 +3956,7 @@
       <c r="G25">
         <v>35.93</v>
       </c>
-      <c r="I25" s="3" t="s">
+      <c r="I25" s="2" t="s">
         <v>22</v>
       </c>
       <c r="J25">
@@ -4051,7 +3983,7 @@
         <f t="shared" si="6"/>
         <v>1.0132543711223914</v>
       </c>
-      <c r="Q25" s="3" t="s">
+      <c r="Q25" s="2" t="s">
         <v>22</v>
       </c>
       <c r="R25">
@@ -4074,7 +4006,7 @@
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B26">
@@ -4095,7 +4027,7 @@
       <c r="G26">
         <v>28.46</v>
       </c>
-      <c r="I26" s="3" t="s">
+      <c r="I26" s="2" t="s">
         <v>23</v>
       </c>
       <c r="J26">
@@ -4122,7 +4054,7 @@
         <f t="shared" si="6"/>
         <v>1.0451707675358062</v>
       </c>
-      <c r="Q26" s="3" t="s">
+      <c r="Q26" s="2" t="s">
         <v>23</v>
       </c>
       <c r="R26">
@@ -4145,7 +4077,7 @@
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B27">
@@ -4166,7 +4098,7 @@
       <c r="G27">
         <v>44.59</v>
       </c>
-      <c r="I27" s="3" t="s">
+      <c r="I27" s="2" t="s">
         <v>24</v>
       </c>
       <c r="J27">
@@ -4193,7 +4125,7 @@
         <f t="shared" si="6"/>
         <v>0.95954379169356585</v>
       </c>
-      <c r="Q27" s="3" t="s">
+      <c r="Q27" s="2" t="s">
         <v>24</v>
       </c>
       <c r="R27">
@@ -4216,7 +4148,7 @@
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B28">
@@ -4237,7 +4169,7 @@
       <c r="G28">
         <v>40.68</v>
       </c>
-      <c r="I28" s="3" t="s">
+      <c r="I28" s="2" t="s">
         <v>25</v>
       </c>
       <c r="J28">
@@ -4264,7 +4196,7 @@
         <f t="shared" si="6"/>
         <v>1.0017237133710908</v>
       </c>
-      <c r="Q28" s="3" t="s">
+      <c r="Q28" s="2" t="s">
         <v>25</v>
       </c>
       <c r="R28">
@@ -4287,7 +4219,7 @@
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B29">
@@ -4308,7 +4240,7 @@
       <c r="G29">
         <v>37.97</v>
       </c>
-      <c r="I29" s="3" t="s">
+      <c r="I29" s="2" t="s">
         <v>26</v>
       </c>
       <c r="J29">
@@ -4335,7 +4267,7 @@
         <f t="shared" si="6"/>
         <v>0.95811254100428955</v>
       </c>
-      <c r="Q29" s="3" t="s">
+      <c r="Q29" s="2" t="s">
         <v>26</v>
       </c>
       <c r="R29">
@@ -4358,7 +4290,7 @@
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B30">
@@ -4385,7 +4317,7 @@
         <f t="shared" si="7"/>
         <v>39.007999999999996</v>
       </c>
-      <c r="I30" s="3" t="s">
+      <c r="I30" s="2" t="s">
         <v>30</v>
       </c>
       <c r="J30">
@@ -4412,7 +4344,7 @@
         <f t="shared" ref="O30:O32" si="13">G30/$B30</f>
         <v>1.0219901140551586</v>
       </c>
-      <c r="Q30" s="3" t="s">
+      <c r="Q30" s="2" t="s">
         <v>30</v>
       </c>
       <c r="R30">
@@ -4441,7 +4373,7 @@
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B31">
@@ -4468,7 +4400,7 @@
         <f t="shared" si="14"/>
         <v>34.654166666666661</v>
       </c>
-      <c r="I31" s="3" t="s">
+      <c r="I31" s="2" t="s">
         <v>31</v>
       </c>
       <c r="J31">
@@ -4495,7 +4427,7 @@
         <f t="shared" si="13"/>
         <v>0.98955358842566132</v>
       </c>
-      <c r="Q31" s="3" t="s">
+      <c r="Q31" s="2" t="s">
         <v>31</v>
       </c>
       <c r="R31">
@@ -4524,7 +4456,7 @@
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B32">
@@ -4551,7 +4483,7 @@
         <f t="shared" si="15"/>
         <v>37.072962962962961</v>
       </c>
-      <c r="I32" s="3" t="s">
+      <c r="I32" s="2" t="s">
         <v>32</v>
       </c>
       <c r="J32">
@@ -4578,7 +4510,7 @@
         <f t="shared" si="13"/>
         <v>1.0082597177594004</v>
       </c>
-      <c r="Q32" s="3" t="s">
+      <c r="Q32" s="2" t="s">
         <v>32</v>
       </c>
       <c r="R32">
@@ -4607,38 +4539,38 @@
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="1" t="s">
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="1" t="s">
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="R36" s="1"/>
-      <c r="S36" s="1"/>
-      <c r="T36" s="1"/>
-      <c r="U36" s="1"/>
-      <c r="V36" s="1"/>
-      <c r="W36" s="1"/>
+      <c r="R36" s="5"/>
+      <c r="S36" s="5"/>
+      <c r="T36" s="5"/>
+      <c r="U36" s="5"/>
+      <c r="V36" s="5"/>
+      <c r="W36" s="5"/>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B37">
@@ -4659,7 +4591,7 @@
       <c r="G37">
         <v>39.007999999999996</v>
       </c>
-      <c r="I37" s="3" t="s">
+      <c r="I37" s="2" t="s">
         <v>30</v>
       </c>
       <c r="J37">
@@ -4680,7 +4612,7 @@
       <c r="O37">
         <v>1.0219901140551586</v>
       </c>
-      <c r="Q37" s="3" t="s">
+      <c r="Q37" s="2" t="s">
         <v>30</v>
       </c>
       <c r="R37">
@@ -4703,7 +4635,7 @@
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B38">
@@ -4724,7 +4656,7 @@
       <c r="G38">
         <v>34.654166666666661</v>
       </c>
-      <c r="I38" s="3" t="s">
+      <c r="I38" s="2" t="s">
         <v>31</v>
       </c>
       <c r="J38">
@@ -4745,7 +4677,7 @@
       <c r="O38">
         <v>0.98955358842566132</v>
       </c>
-      <c r="Q38" s="3" t="s">
+      <c r="Q38" s="2" t="s">
         <v>31</v>
       </c>
       <c r="R38">
@@ -4768,7 +4700,7 @@
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B39">
@@ -4789,7 +4721,7 @@
       <c r="G39">
         <v>37.072962962962961</v>
       </c>
-      <c r="I39" s="3" t="s">
+      <c r="I39" s="2" t="s">
         <v>32</v>
       </c>
       <c r="J39">
@@ -4810,7 +4742,7 @@
       <c r="O39">
         <v>1.0082597177594004</v>
       </c>
-      <c r="Q39" s="3" t="s">
+      <c r="Q39" s="2" t="s">
         <v>32</v>
       </c>
       <c r="R39">
@@ -4833,22 +4765,22 @@
       </c>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A42" s="3"/>
-      <c r="B42" s="4">
+      <c r="A42" s="2"/>
+      <c r="B42" s="3">
         <v>50</v>
       </c>
       <c r="C42">
         <v>38.168666666666667</v>
       </c>
-      <c r="I42" s="3"/>
-      <c r="J42" s="4">
+      <c r="I42" s="2"/>
+      <c r="J42" s="3">
         <v>50</v>
       </c>
       <c r="K42">
         <v>1</v>
       </c>
-      <c r="Q42" s="3"/>
-      <c r="R42" s="4">
+      <c r="Q42" s="2"/>
+      <c r="R42" s="3">
         <v>50</v>
       </c>
       <c r="S42">
@@ -4856,22 +4788,22 @@
       </c>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A43" s="3"/>
-      <c r="B43" s="4">
+      <c r="A43" s="2"/>
+      <c r="B43" s="3">
         <v>100</v>
       </c>
       <c r="C43">
         <v>37.959333333333326</v>
       </c>
-      <c r="I43" s="3"/>
-      <c r="J43" s="4">
+      <c r="I43" s="2"/>
+      <c r="J43" s="3">
         <v>100</v>
       </c>
       <c r="K43">
         <v>0.99451557123644152</v>
       </c>
-      <c r="Q43" s="3"/>
-      <c r="R43" s="4">
+      <c r="Q43" s="2"/>
+      <c r="R43" s="3">
         <v>100</v>
       </c>
       <c r="S43">
@@ -4879,22 +4811,22 @@
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A44" s="3"/>
-      <c r="B44" s="4">
+      <c r="A44" s="2"/>
+      <c r="B44" s="3">
         <v>200</v>
       </c>
       <c r="C44">
         <v>38.233333333333341</v>
       </c>
-      <c r="I44" s="3"/>
-      <c r="J44" s="4">
+      <c r="I44" s="2"/>
+      <c r="J44" s="3">
         <v>200</v>
       </c>
       <c r="K44">
         <v>1.0016942343632651</v>
       </c>
-      <c r="Q44" s="3"/>
-      <c r="R44" s="4">
+      <c r="Q44" s="2"/>
+      <c r="R44" s="3">
         <v>200</v>
       </c>
       <c r="S44">
@@ -4902,28 +4834,28 @@
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B45" s="4">
+      <c r="B45" s="3">
         <v>300</v>
       </c>
       <c r="C45">
         <v>38.404000000000003</v>
       </c>
-      <c r="I45" s="3" t="s">
+      <c r="I45" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J45" s="4">
+      <c r="J45" s="3">
         <v>300</v>
       </c>
       <c r="K45">
         <v>1.0061656157755927</v>
       </c>
-      <c r="Q45" s="3" t="s">
+      <c r="Q45" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="R45" s="4">
+      <c r="R45" s="3">
         <v>300</v>
       </c>
       <c r="S45">
@@ -4931,22 +4863,22 @@
       </c>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A46" s="3"/>
-      <c r="B46" s="4">
+      <c r="A46" s="2"/>
+      <c r="B46" s="3">
         <v>400</v>
       </c>
       <c r="C46">
         <v>38.645999999999987</v>
       </c>
-      <c r="I46" s="3"/>
-      <c r="J46" s="4">
+      <c r="I46" s="2"/>
+      <c r="J46" s="3">
         <v>400</v>
       </c>
       <c r="K46">
         <v>1.0125058948876038</v>
       </c>
-      <c r="Q46" s="3"/>
-      <c r="R46" s="4">
+      <c r="Q46" s="2"/>
+      <c r="R46" s="3">
         <v>400</v>
       </c>
       <c r="S46">
@@ -4954,22 +4886,22 @@
       </c>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A47" s="3"/>
-      <c r="B47" s="4">
+      <c r="A47" s="2"/>
+      <c r="B47" s="3">
         <v>500</v>
       </c>
       <c r="C47">
         <v>39.007999999999996</v>
       </c>
-      <c r="I47" s="3"/>
-      <c r="J47" s="4">
+      <c r="I47" s="2"/>
+      <c r="J47" s="3">
         <v>500</v>
       </c>
       <c r="K47">
         <v>1.0219901140551586</v>
       </c>
-      <c r="Q47" s="3"/>
-      <c r="R47" s="4">
+      <c r="Q47" s="2"/>
+      <c r="R47" s="3">
         <v>500</v>
       </c>
       <c r="S47">
@@ -4977,30 +4909,30 @@
       </c>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A48" s="3"/>
-      <c r="B48" s="4"/>
-      <c r="I48" s="3"/>
-      <c r="J48" s="4"/>
-      <c r="Q48" s="3"/>
-      <c r="R48" s="4"/>
+      <c r="A48" s="2"/>
+      <c r="B48" s="3"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="3"/>
+      <c r="Q48" s="2"/>
+      <c r="R48" s="3"/>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A49" s="3"/>
-      <c r="B49" s="4">
+      <c r="A49" s="2"/>
+      <c r="B49" s="3">
         <v>50</v>
       </c>
       <c r="D49">
         <v>35.020000000000003</v>
       </c>
-      <c r="I49" s="3"/>
-      <c r="J49" s="4">
+      <c r="I49" s="2"/>
+      <c r="J49" s="3">
         <v>50</v>
       </c>
       <c r="L49">
         <v>1</v>
       </c>
-      <c r="Q49" s="3"/>
-      <c r="R49" s="4">
+      <c r="Q49" s="2"/>
+      <c r="R49" s="3">
         <v>50</v>
       </c>
       <c r="T49">
@@ -5008,22 +4940,22 @@
       </c>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A50" s="3"/>
-      <c r="B50" s="4">
+      <c r="A50" s="2"/>
+      <c r="B50" s="3">
         <v>100</v>
       </c>
       <c r="D50">
         <v>34.306666666666672</v>
       </c>
-      <c r="I50" s="3"/>
-      <c r="J50" s="4">
+      <c r="I50" s="2"/>
+      <c r="J50" s="3">
         <v>100</v>
       </c>
       <c r="L50">
         <v>0.97963068722634694</v>
       </c>
-      <c r="Q50" s="3"/>
-      <c r="R50" s="4">
+      <c r="Q50" s="2"/>
+      <c r="R50" s="3">
         <v>100</v>
       </c>
       <c r="T50">
@@ -5031,22 +4963,22 @@
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A51" s="5"/>
-      <c r="B51" s="4">
+      <c r="A51" s="4"/>
+      <c r="B51" s="3">
         <v>200</v>
       </c>
       <c r="D51">
         <v>34.219166666666666</v>
       </c>
-      <c r="I51" s="5"/>
-      <c r="J51" s="4">
+      <c r="I51" s="4"/>
+      <c r="J51" s="3">
         <v>200</v>
       </c>
       <c r="L51">
         <v>0.97713211498191499</v>
       </c>
-      <c r="Q51" s="5"/>
-      <c r="R51" s="4">
+      <c r="Q51" s="4"/>
+      <c r="R51" s="3">
         <v>200</v>
       </c>
       <c r="T51">
@@ -5054,28 +4986,28 @@
       </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B52" s="4">
+      <c r="B52" s="3">
         <v>300</v>
       </c>
       <c r="D52">
         <v>34.302500000000002</v>
       </c>
-      <c r="I52" s="3" t="s">
+      <c r="I52" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J52" s="4">
+      <c r="J52" s="3">
         <v>300</v>
       </c>
       <c r="L52">
         <v>0.97951170759565964</v>
       </c>
-      <c r="Q52" s="3" t="s">
+      <c r="Q52" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="R52" s="4">
+      <c r="R52" s="3">
         <v>300</v>
       </c>
       <c r="T52">
@@ -5083,22 +5015,22 @@
       </c>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A53" s="3"/>
-      <c r="B53" s="4">
+      <c r="A53" s="2"/>
+      <c r="B53" s="3">
         <v>400</v>
       </c>
       <c r="D53">
         <v>34.401666666666664</v>
       </c>
-      <c r="I53" s="3"/>
-      <c r="J53" s="4">
+      <c r="I53" s="2"/>
+      <c r="J53" s="3">
         <v>400</v>
       </c>
       <c r="L53">
         <v>0.98234342280601539</v>
       </c>
-      <c r="Q53" s="3"/>
-      <c r="R53" s="4">
+      <c r="Q53" s="2"/>
+      <c r="R53" s="3">
         <v>400</v>
       </c>
       <c r="T53">
@@ -5106,22 +5038,22 @@
       </c>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A54" s="3"/>
-      <c r="B54" s="4">
+      <c r="A54" s="2"/>
+      <c r="B54" s="3">
         <v>500</v>
       </c>
       <c r="D54">
         <v>34.654166666666661</v>
       </c>
-      <c r="I54" s="3"/>
-      <c r="J54" s="4">
+      <c r="I54" s="2"/>
+      <c r="J54" s="3">
         <v>500</v>
       </c>
       <c r="L54">
         <v>0.98955358842566132</v>
       </c>
-      <c r="Q54" s="3"/>
-      <c r="R54" s="4">
+      <c r="Q54" s="2"/>
+      <c r="R54" s="3">
         <v>500</v>
       </c>
       <c r="T54">
@@ -5129,30 +5061,30 @@
       </c>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A55" s="3"/>
-      <c r="B55" s="4"/>
-      <c r="I55" s="3"/>
-      <c r="J55" s="4"/>
-      <c r="Q55" s="3"/>
-      <c r="R55" s="4"/>
+      <c r="A55" s="2"/>
+      <c r="B55" s="3"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="3"/>
+      <c r="Q55" s="2"/>
+      <c r="R55" s="3"/>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A56" s="3"/>
-      <c r="B56" s="4">
+      <c r="A56" s="2"/>
+      <c r="B56" s="3">
         <v>50</v>
       </c>
       <c r="E56">
         <v>36.769259259259258</v>
       </c>
-      <c r="I56" s="3"/>
-      <c r="J56" s="4">
+      <c r="I56" s="2"/>
+      <c r="J56" s="3">
         <v>50</v>
       </c>
       <c r="M56">
         <v>1</v>
       </c>
-      <c r="Q56" s="3"/>
-      <c r="R56" s="4">
+      <c r="Q56" s="2"/>
+      <c r="R56" s="3">
         <v>50</v>
       </c>
       <c r="U56">
@@ -5160,22 +5092,22 @@
       </c>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A57" s="5"/>
-      <c r="B57" s="4">
+      <c r="A57" s="4"/>
+      <c r="B57" s="3">
         <v>100</v>
       </c>
       <c r="E57">
         <v>36.335925925925913</v>
       </c>
-      <c r="I57" s="5"/>
-      <c r="J57" s="4">
+      <c r="I57" s="4"/>
+      <c r="J57" s="3">
         <v>100</v>
       </c>
       <c r="M57">
         <v>0.98821479295305026</v>
       </c>
-      <c r="Q57" s="5"/>
-      <c r="R57" s="4">
+      <c r="Q57" s="4"/>
+      <c r="R57" s="3">
         <v>100</v>
       </c>
       <c r="U57">
@@ -5183,22 +5115,22 @@
       </c>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A58" s="5"/>
-      <c r="B58" s="4">
+      <c r="A58" s="4"/>
+      <c r="B58" s="3">
         <v>200</v>
       </c>
       <c r="E58">
         <v>36.449259259259264</v>
       </c>
-      <c r="I58" s="5"/>
-      <c r="J58" s="4">
+      <c r="I58" s="4"/>
+      <c r="J58" s="3">
         <v>200</v>
       </c>
       <c r="M58">
         <v>0.99129707787302213</v>
       </c>
-      <c r="Q58" s="5"/>
-      <c r="R58" s="4">
+      <c r="Q58" s="4"/>
+      <c r="R58" s="3">
         <v>200</v>
       </c>
       <c r="U58">
@@ -5206,28 +5138,28 @@
       </c>
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
+      <c r="A59" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B59" s="4">
+      <c r="B59" s="3">
         <v>300</v>
       </c>
       <c r="E59">
         <v>36.58111111111112</v>
       </c>
-      <c r="I59" s="3" t="s">
+      <c r="I59" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J59" s="4">
+      <c r="J59" s="3">
         <v>300</v>
       </c>
       <c r="M59">
         <v>0.99488300411978636</v>
       </c>
-      <c r="Q59" s="3" t="s">
+      <c r="Q59" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="R59" s="4">
+      <c r="R59" s="3">
         <v>300</v>
       </c>
       <c r="U59">
@@ -5235,22 +5167,22 @@
       </c>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A60" s="3"/>
-      <c r="B60" s="4">
+      <c r="A60" s="2"/>
+      <c r="B60" s="3">
         <v>400</v>
       </c>
       <c r="E60">
         <v>36.759629629629629</v>
       </c>
-      <c r="I60" s="3"/>
-      <c r="J60" s="4">
+      <c r="I60" s="2"/>
+      <c r="J60" s="3">
         <v>400</v>
       </c>
       <c r="M60">
         <v>0.99973810651006778</v>
       </c>
-      <c r="Q60" s="3"/>
-      <c r="R60" s="4">
+      <c r="Q60" s="2"/>
+      <c r="R60" s="3">
         <v>400</v>
       </c>
       <c r="U60">
@@ -5258,22 +5190,22 @@
       </c>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A61" s="3"/>
-      <c r="B61" s="4">
+      <c r="A61" s="2"/>
+      <c r="B61" s="3">
         <v>500</v>
       </c>
       <c r="E61">
         <v>37.072962962962961</v>
       </c>
-      <c r="I61" s="3"/>
-      <c r="J61" s="4">
+      <c r="I61" s="2"/>
+      <c r="J61" s="3">
         <v>500</v>
       </c>
       <c r="M61">
         <v>1.0082597177594004</v>
       </c>
-      <c r="Q61" s="3"/>
-      <c r="R61" s="4">
+      <c r="Q61" s="2"/>
+      <c r="R61" s="3">
         <v>500</v>
       </c>
       <c r="U61">
